--- a/Data for Fig. 2.xlsx
+++ b/Data for Fig. 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/sxiaoai_connect_ust_hk/Documents/HKUST - 2022 spring/0 flood risk-2/99 整理出补充材料的数据/Data for Fig. 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/sxiaoai_connect_ust_hk/Documents/HKUST - 2022 spring/0 flood risk-2/99 整理出补充材料的数据/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="11_AD4DA82427541F7ACA7EB897488801306BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82431419-5740-45EA-99F9-431341CE978D}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="11_AD4DA82427541F7ACA7EB897488801306BE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65FEB7BA-8AAB-459E-9582-C8BE329D3346}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,75 +35,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <r>
-      <t>Upstream watershed area (km</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Annual mean flow rate (m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> s</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <r>
       <t>Q</t>
@@ -169,11 +100,222 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>River segment No.
+(each 2 km)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>Peak discharge (Q</t>
+      <t xml:space="preserve">Distance from upstream, </t>
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (km)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Valley floor width, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (m)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Damming probability, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Upstream watershed area, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (km</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Annual mean flow rate, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Peak discharge (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -231,23 +373,6 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>Damming probability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Valley floor width (m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance from upstream (km)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>River segment No.
-(each 2 km)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -257,7 +382,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +411,21 @@
       <family val="1"/>
     </font>
     <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,42 +859,42 @@
   <dimension ref="A1:J1142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.9140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.4140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.9140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="1" customWidth="1"/>
     <col min="7" max="10" width="16.58203125" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -768,16 +908,16 @@
       <c r="E2" s="18"/>
       <c r="F2" s="17"/>
       <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
